--- a/data/pca/factorExposure/factorExposure_2009-08-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-08-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01778878897062551</v>
+        <v>0.01702087972799489</v>
       </c>
       <c r="C2">
-        <v>0.001558145955796853</v>
+        <v>-0.0009847627324655204</v>
       </c>
       <c r="D2">
-        <v>-0.003771074158054103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00950203591961751</v>
+      </c>
+      <c r="E2">
+        <v>0.002131074850473693</v>
+      </c>
+      <c r="F2">
+        <v>-0.01352050649491366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09479483909564321</v>
+        <v>0.09325570859315185</v>
       </c>
       <c r="C4">
-        <v>0.02082171176741912</v>
+        <v>-0.01463434450706723</v>
       </c>
       <c r="D4">
-        <v>-0.06669196266221386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08362700619753671</v>
+      </c>
+      <c r="E4">
+        <v>0.02842910243337493</v>
+      </c>
+      <c r="F4">
+        <v>0.03341121042894479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1485949193683616</v>
+        <v>0.1596335365763089</v>
       </c>
       <c r="C6">
-        <v>0.02773477753160609</v>
+        <v>-0.02716617833825696</v>
       </c>
       <c r="D6">
-        <v>0.02560296627373191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02527385714894083</v>
+      </c>
+      <c r="E6">
+        <v>0.009154913444331678</v>
+      </c>
+      <c r="F6">
+        <v>0.04191533862037593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06389605382674841</v>
+        <v>0.06363848690324145</v>
       </c>
       <c r="C7">
-        <v>0.002903666945967604</v>
+        <v>0.001609132713703697</v>
       </c>
       <c r="D7">
-        <v>-0.04004158512940383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05251759959690017</v>
+      </c>
+      <c r="E7">
+        <v>0.0120271943225604</v>
+      </c>
+      <c r="F7">
+        <v>0.0468822059081915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06334007453497122</v>
+        <v>0.057768804632605</v>
       </c>
       <c r="C8">
-        <v>-0.009860929363970117</v>
+        <v>0.01309711765284976</v>
       </c>
       <c r="D8">
-        <v>-0.01844322075862104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03174822600279244</v>
+      </c>
+      <c r="E8">
+        <v>0.01757235487630821</v>
+      </c>
+      <c r="F8">
+        <v>-0.02551338603084749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07313223805219787</v>
+        <v>0.07081223139841433</v>
       </c>
       <c r="C9">
-        <v>0.01718564761715132</v>
+        <v>-0.01032115058497049</v>
       </c>
       <c r="D9">
-        <v>-0.0691745014756948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08717696604192293</v>
+      </c>
+      <c r="E9">
+        <v>0.02390382976030289</v>
+      </c>
+      <c r="F9">
+        <v>0.04714209075965249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08305144617681585</v>
+        <v>0.08975222286136572</v>
       </c>
       <c r="C10">
-        <v>0.0125523947767935</v>
+        <v>-0.02062050596565241</v>
       </c>
       <c r="D10">
-        <v>0.1673847861001975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1628745078355383</v>
+      </c>
+      <c r="E10">
+        <v>-0.03195167635015651</v>
+      </c>
+      <c r="F10">
+        <v>-0.05743446783832017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09330962280282126</v>
+        <v>0.08826963681497652</v>
       </c>
       <c r="C11">
-        <v>0.01805778371884963</v>
+        <v>-0.01053962703338653</v>
       </c>
       <c r="D11">
-        <v>-0.09726692562379859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169431831531679</v>
+      </c>
+      <c r="E11">
+        <v>0.04640305091922996</v>
+      </c>
+      <c r="F11">
+        <v>0.02314191443755065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09934144242341082</v>
+        <v>0.09155180796260218</v>
       </c>
       <c r="C12">
-        <v>0.0159354980734933</v>
+        <v>-0.007857468426718027</v>
       </c>
       <c r="D12">
-        <v>-0.1011271820802237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316844793304319</v>
+      </c>
+      <c r="E12">
+        <v>0.04569094971048639</v>
+      </c>
+      <c r="F12">
+        <v>0.03152663889255225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04445711725612363</v>
+        <v>0.04167430317972028</v>
       </c>
       <c r="C13">
-        <v>0.005931923384870225</v>
+        <v>-0.00247310625100036</v>
       </c>
       <c r="D13">
-        <v>-0.03116078025874022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05357487232180089</v>
+      </c>
+      <c r="E13">
+        <v>-0.003705424883089067</v>
+      </c>
+      <c r="F13">
+        <v>0.00105034392118255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01967028064302573</v>
+        <v>0.02381907061415164</v>
       </c>
       <c r="C14">
-        <v>0.01526461366160176</v>
+        <v>-0.0137493850805609</v>
       </c>
       <c r="D14">
-        <v>-0.02453224477318739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0334560886664511</v>
+      </c>
+      <c r="E14">
+        <v>0.01888504185284336</v>
+      </c>
+      <c r="F14">
+        <v>0.01382202222644159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03457507006482295</v>
+        <v>0.03299384578338441</v>
       </c>
       <c r="C15">
-        <v>0.007720384866969843</v>
+        <v>-0.004667200694569787</v>
       </c>
       <c r="D15">
-        <v>-0.03080696201725166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04502875558958767</v>
+      </c>
+      <c r="E15">
+        <v>0.005922356684946113</v>
+      </c>
+      <c r="F15">
+        <v>0.02562957996576974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07849546751892957</v>
+        <v>0.07401494024872125</v>
       </c>
       <c r="C16">
-        <v>0.008797414256302228</v>
+        <v>-0.001038440543205841</v>
       </c>
       <c r="D16">
-        <v>-0.09943335670002909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1274395128397287</v>
+      </c>
+      <c r="E16">
+        <v>0.06052673354799631</v>
+      </c>
+      <c r="F16">
+        <v>0.02765426676571521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0008754619592036009</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.000227703082034388</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00163621385899425</v>
+      </c>
+      <c r="E17">
+        <v>0.0009978788986740954</v>
+      </c>
+      <c r="F17">
+        <v>-0.002236057555142082</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01730210771132011</v>
+        <v>0.0373534222185995</v>
       </c>
       <c r="C18">
-        <v>-0.003154982566141335</v>
+        <v>0.002729271675109166</v>
       </c>
       <c r="D18">
-        <v>-0.03043022499228383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01559706861112397</v>
+      </c>
+      <c r="E18">
+        <v>-0.008530247887254663</v>
+      </c>
+      <c r="F18">
+        <v>-0.008851826702771511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06612797580681111</v>
+        <v>0.06267197866573491</v>
       </c>
       <c r="C20">
-        <v>0.006786857413612368</v>
+        <v>-0.0003893346668084411</v>
       </c>
       <c r="D20">
-        <v>-0.05170582363886428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07703827766638928</v>
+      </c>
+      <c r="E20">
+        <v>0.0555231215787751</v>
+      </c>
+      <c r="F20">
+        <v>0.03008560659190155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0401476041421083</v>
+        <v>0.04075649787557835</v>
       </c>
       <c r="C21">
-        <v>0.009768025964941182</v>
+        <v>-0.006353836938259216</v>
       </c>
       <c r="D21">
-        <v>-0.03152404375925568</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03878571837254802</v>
+      </c>
+      <c r="E21">
+        <v>-0.0005792133769890023</v>
+      </c>
+      <c r="F21">
+        <v>-0.023652595177071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04088148682403189</v>
+        <v>0.04357181346175931</v>
       </c>
       <c r="C22">
-        <v>0.00100274604574332</v>
+        <v>-0.0006278928380767389</v>
       </c>
       <c r="D22">
-        <v>0.01193581359661847</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003868885253368956</v>
+      </c>
+      <c r="E22">
+        <v>0.03666726439800001</v>
+      </c>
+      <c r="F22">
+        <v>-0.03894595987018216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04084468885829248</v>
+        <v>0.04354760632433022</v>
       </c>
       <c r="C23">
-        <v>0.0009928786021738097</v>
+        <v>-0.0006193548478610597</v>
       </c>
       <c r="D23">
-        <v>0.01191535808907629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003884484653233716</v>
+      </c>
+      <c r="E23">
+        <v>0.03685012041832694</v>
+      </c>
+      <c r="F23">
+        <v>-0.03890648349212596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08461828415407351</v>
+        <v>0.07992572117127794</v>
       </c>
       <c r="C24">
-        <v>0.009117823149009743</v>
+        <v>-0.001769615322872915</v>
       </c>
       <c r="D24">
-        <v>-0.1039729340417667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1197920270891249</v>
+      </c>
+      <c r="E24">
+        <v>0.04851946967513968</v>
+      </c>
+      <c r="F24">
+        <v>0.030015556858125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08960614993346895</v>
+        <v>0.08474276623218498</v>
       </c>
       <c r="C25">
-        <v>0.01156546397433027</v>
+        <v>-0.004347661649292169</v>
       </c>
       <c r="D25">
-        <v>-0.09068918195210239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094084180976065</v>
+      </c>
+      <c r="E25">
+        <v>0.03204301743265472</v>
+      </c>
+      <c r="F25">
+        <v>0.02686190938710369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05920525033058986</v>
+        <v>0.05926589451513019</v>
       </c>
       <c r="C26">
-        <v>0.01814106054207928</v>
+        <v>-0.01459845325313633</v>
       </c>
       <c r="D26">
-        <v>-0.01780221768469426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04236817223354617</v>
+      </c>
+      <c r="E26">
+        <v>0.02969409495580198</v>
+      </c>
+      <c r="F26">
+        <v>-0.004979675277680908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1303962367569168</v>
+        <v>0.1412306449673013</v>
       </c>
       <c r="C28">
-        <v>0.01121582727706132</v>
+        <v>-0.02219267939025477</v>
       </c>
       <c r="D28">
-        <v>0.2715080681447044</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2613837708567132</v>
+      </c>
+      <c r="E28">
+        <v>-0.0674755465613513</v>
+      </c>
+      <c r="F28">
+        <v>0.004088814589638754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02612467983141386</v>
+        <v>0.02872290152762226</v>
       </c>
       <c r="C29">
-        <v>0.009843989184027645</v>
+        <v>-0.008762764035040869</v>
       </c>
       <c r="D29">
-        <v>-0.02212040391035349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03119911006851106</v>
+      </c>
+      <c r="E29">
+        <v>0.01392270561980565</v>
+      </c>
+      <c r="F29">
+        <v>-0.01254367448990586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06606139959419809</v>
+        <v>0.05906876563509687</v>
       </c>
       <c r="C30">
-        <v>0.01034371172074529</v>
+        <v>-0.00273430834154566</v>
       </c>
       <c r="D30">
-        <v>-0.06099485697361096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08800769913793935</v>
+      </c>
+      <c r="E30">
+        <v>0.0137751295793926</v>
+      </c>
+      <c r="F30">
+        <v>0.07996712779205808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05129115934323989</v>
+        <v>0.05137342288766077</v>
       </c>
       <c r="C31">
-        <v>0.01712278441136008</v>
+        <v>-0.01573961530227454</v>
       </c>
       <c r="D31">
-        <v>-0.02012973160923999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02440420948687081</v>
+      </c>
+      <c r="E31">
+        <v>0.02889712217795453</v>
+      </c>
+      <c r="F31">
+        <v>-0.001143260480176606</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04754865922847659</v>
+        <v>0.05132967996215977</v>
       </c>
       <c r="C32">
-        <v>0.002314513151328928</v>
+        <v>0.001796723013788541</v>
       </c>
       <c r="D32">
-        <v>-0.02016343962375648</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03616268695411259</v>
+      </c>
+      <c r="E32">
+        <v>0.03445750300789174</v>
+      </c>
+      <c r="F32">
+        <v>0.00425441303949442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09315413377200631</v>
+        <v>0.08856669215430656</v>
       </c>
       <c r="C33">
-        <v>0.01409491236527504</v>
+        <v>-0.00646204798917384</v>
       </c>
       <c r="D33">
-        <v>-0.07830133049522264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.102653215180942</v>
+      </c>
+      <c r="E33">
+        <v>0.04474122887503554</v>
+      </c>
+      <c r="F33">
+        <v>0.0392908211715508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07145776578233762</v>
+        <v>0.06782713425770499</v>
       </c>
       <c r="C34">
-        <v>0.01626986555009676</v>
+        <v>-0.0101009928248521</v>
       </c>
       <c r="D34">
-        <v>-0.08531894455761838</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.109991427090933</v>
+      </c>
+      <c r="E34">
+        <v>0.03500681334113416</v>
+      </c>
+      <c r="F34">
+        <v>0.03330651412014538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02395662385750297</v>
+        <v>0.02588079347246436</v>
       </c>
       <c r="C35">
-        <v>0.002967425213631954</v>
+        <v>-0.002674302678581335</v>
       </c>
       <c r="D35">
-        <v>-0.006399489810548128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01211267584515909</v>
+      </c>
+      <c r="E35">
+        <v>0.01273551123801418</v>
+      </c>
+      <c r="F35">
+        <v>0.001386576749685302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02686824230261564</v>
+        <v>0.02754692229558588</v>
       </c>
       <c r="C36">
-        <v>0.00801155060340617</v>
+        <v>-0.006834581266184634</v>
       </c>
       <c r="D36">
-        <v>-0.03877765106530726</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03975594004521396</v>
+      </c>
+      <c r="E36">
+        <v>0.01676682777969097</v>
+      </c>
+      <c r="F36">
+        <v>0.01532832231391095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0002318178215709093</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0004831095997470145</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002401966485758022</v>
+      </c>
+      <c r="E37">
+        <v>-0.0006977243755560153</v>
+      </c>
+      <c r="F37">
+        <v>-0.001713671956126524</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1171725319496662</v>
+        <v>0.1037806687454646</v>
       </c>
       <c r="C39">
-        <v>0.02485599862224215</v>
+        <v>-0.0157387180212681</v>
       </c>
       <c r="D39">
-        <v>-0.1403189095171226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538486460511494</v>
+      </c>
+      <c r="E39">
+        <v>0.05908013129247865</v>
+      </c>
+      <c r="F39">
+        <v>0.03113667168791842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.0399298001137978</v>
+        <v>0.04357565112135402</v>
       </c>
       <c r="C40">
-        <v>0.009651157224564328</v>
+        <v>-0.007449939204176291</v>
       </c>
       <c r="D40">
-        <v>-0.00962562470011046</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03051772830685005</v>
+      </c>
+      <c r="E40">
+        <v>0.001724507497827235</v>
+      </c>
+      <c r="F40">
+        <v>-0.01880016946615055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02546857408287242</v>
+        <v>0.02757804672705886</v>
       </c>
       <c r="C41">
-        <v>0.007134089521381573</v>
+        <v>-0.006843112311824111</v>
       </c>
       <c r="D41">
-        <v>-0.009559759621168302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01084176320955987</v>
+      </c>
+      <c r="E41">
+        <v>0.01206998910171173</v>
+      </c>
+      <c r="F41">
+        <v>-0.005613270579234851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04227060633074281</v>
+        <v>0.04103366235289042</v>
       </c>
       <c r="C43">
-        <v>0.008250897500880056</v>
+        <v>-0.007201664209371394</v>
       </c>
       <c r="D43">
-        <v>-0.01360831841092353</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01882903806664934</v>
+      </c>
+      <c r="E43">
+        <v>0.02553429560733553</v>
+      </c>
+      <c r="F43">
+        <v>-0.01286228908306281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07513484081065787</v>
+        <v>0.07946225477242252</v>
       </c>
       <c r="C44">
-        <v>0.02682392333677111</v>
+        <v>-0.01926238058605734</v>
       </c>
       <c r="D44">
-        <v>-0.07961363915513962</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09757262724166404</v>
+      </c>
+      <c r="E44">
+        <v>0.06141437186929456</v>
+      </c>
+      <c r="F44">
+        <v>0.159903002963959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02099516301405414</v>
+        <v>0.02337229034717246</v>
       </c>
       <c r="C46">
-        <v>0.003924618412657817</v>
+        <v>-0.003335817960079389</v>
       </c>
       <c r="D46">
-        <v>-0.005932205017511199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01285280675477101</v>
+      </c>
+      <c r="E46">
+        <v>0.02615489800858854</v>
+      </c>
+      <c r="F46">
+        <v>-0.006931568288411431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05355121357244055</v>
+        <v>0.05248252666714344</v>
       </c>
       <c r="C47">
-        <v>0.004651816011861454</v>
+        <v>-0.003870364057788926</v>
       </c>
       <c r="D47">
-        <v>-0.006646872924273268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01151383674757779</v>
+      </c>
+      <c r="E47">
+        <v>0.02331100376554254</v>
+      </c>
+      <c r="F47">
+        <v>-0.03228098945184553</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04956423827041929</v>
+        <v>0.05003220892517023</v>
       </c>
       <c r="C48">
-        <v>0.005140983286566181</v>
+        <v>-0.002165539275331152</v>
       </c>
       <c r="D48">
-        <v>-0.04133520242030485</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05080070096151793</v>
+      </c>
+      <c r="E48">
+        <v>-0.00485281709409107</v>
+      </c>
+      <c r="F48">
+        <v>0.009867263725029557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2020580878962205</v>
+        <v>0.2000841926131326</v>
       </c>
       <c r="C49">
-        <v>0.02157690875734832</v>
+        <v>-0.01921612377184762</v>
       </c>
       <c r="D49">
-        <v>0.01749509601265198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007741101862178143</v>
+      </c>
+      <c r="E49">
+        <v>0.0304537140715855</v>
+      </c>
+      <c r="F49">
+        <v>0.04044126460924252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05046123890253534</v>
+        <v>0.05180595748715554</v>
       </c>
       <c r="C50">
-        <v>0.01307850116624917</v>
+        <v>-0.01146163176105626</v>
       </c>
       <c r="D50">
-        <v>-0.01995457768693686</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02365135467441601</v>
+      </c>
+      <c r="E50">
+        <v>0.02999498041159378</v>
+      </c>
+      <c r="F50">
+        <v>0.009996412955345082</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1561994595260514</v>
+        <v>0.1500816490505144</v>
       </c>
       <c r="C52">
-        <v>0.02004003546151371</v>
+        <v>-0.01811520558852424</v>
       </c>
       <c r="D52">
-        <v>-0.04880161916787001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04075009061111541</v>
+      </c>
+      <c r="E52">
+        <v>0.02097798941973895</v>
+      </c>
+      <c r="F52">
+        <v>0.04335856596346765</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1726857608639461</v>
+        <v>0.1712048739994127</v>
       </c>
       <c r="C53">
-        <v>0.01953711382959611</v>
+        <v>-0.02025815905849282</v>
       </c>
       <c r="D53">
-        <v>-0.01376468163358097</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003350580061921549</v>
+      </c>
+      <c r="E53">
+        <v>0.02818671935886218</v>
+      </c>
+      <c r="F53">
+        <v>0.07313076245478756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01794219513023325</v>
+        <v>0.02063078441527432</v>
       </c>
       <c r="C54">
-        <v>0.01270144537072769</v>
+        <v>-0.01115066064442035</v>
       </c>
       <c r="D54">
-        <v>-0.02779603442009618</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03490184576601435</v>
+      </c>
+      <c r="E54">
+        <v>0.02216668927730697</v>
+      </c>
+      <c r="F54">
+        <v>-0.0017107078546566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1152196835818106</v>
+        <v>0.1153585675583008</v>
       </c>
       <c r="C55">
-        <v>0.01764638255024601</v>
+        <v>-0.01786542518030763</v>
       </c>
       <c r="D55">
-        <v>-0.01095041851601033</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006414838597904571</v>
+      </c>
+      <c r="E55">
+        <v>0.0235341427538712</v>
+      </c>
+      <c r="F55">
+        <v>0.04670463042606694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1787093402501292</v>
+        <v>0.1772365636001347</v>
       </c>
       <c r="C56">
-        <v>0.01728667469611186</v>
+        <v>-0.018270634902785</v>
       </c>
       <c r="D56">
-        <v>-0.01005473118626311</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.004105491116346746</v>
+      </c>
+      <c r="E56">
+        <v>0.03193502905482275</v>
+      </c>
+      <c r="F56">
+        <v>0.05310347452831853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0489879080820099</v>
+        <v>0.04523793058801839</v>
       </c>
       <c r="C58">
-        <v>0.005793638873778214</v>
+        <v>0.0002408315081929056</v>
       </c>
       <c r="D58">
-        <v>-0.05630083245719374</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07199599870541275</v>
+      </c>
+      <c r="E58">
+        <v>0.03308796403572978</v>
+      </c>
+      <c r="F58">
+        <v>-0.0365340570036185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1604313548468054</v>
+        <v>0.16693367316909</v>
       </c>
       <c r="C59">
-        <v>0.01303387013635706</v>
+        <v>-0.02258311288199862</v>
       </c>
       <c r="D59">
-        <v>0.2235822740193699</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176537735107703</v>
+      </c>
+      <c r="E59">
+        <v>-0.04672872298694399</v>
+      </c>
+      <c r="F59">
+        <v>-0.03473639281303754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2377218162304739</v>
+        <v>0.2322867057395443</v>
       </c>
       <c r="C60">
-        <v>0.001424869349326872</v>
+        <v>0.001637547006257643</v>
       </c>
       <c r="D60">
-        <v>-0.04631944505890773</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03853564014089979</v>
+      </c>
+      <c r="E60">
+        <v>0.006817191310271383</v>
+      </c>
+      <c r="F60">
+        <v>-0.0001931419997417532</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0880167033899113</v>
+        <v>0.07980466005449376</v>
       </c>
       <c r="C61">
-        <v>0.01843479518548301</v>
+        <v>-0.0112723209213476</v>
       </c>
       <c r="D61">
-        <v>-0.09880897186654543</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1176440460442057</v>
+      </c>
+      <c r="E61">
+        <v>0.03903589824708262</v>
+      </c>
+      <c r="F61">
+        <v>0.01370175153391938</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1700767633002162</v>
+        <v>0.1687399006303228</v>
       </c>
       <c r="C62">
-        <v>0.02126218635142665</v>
+        <v>-0.02092379806274471</v>
       </c>
       <c r="D62">
-        <v>-0.006868524972625221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004466354378808783</v>
+      </c>
+      <c r="E62">
+        <v>0.03235499505405573</v>
+      </c>
+      <c r="F62">
+        <v>0.03696790682121675</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04396917436928693</v>
+        <v>0.0460834056905089</v>
       </c>
       <c r="C63">
-        <v>0.006168217124899794</v>
+        <v>-0.001803315930402097</v>
       </c>
       <c r="D63">
-        <v>-0.04296842658028693</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05968623271448095</v>
+      </c>
+      <c r="E63">
+        <v>0.0241338184264926</v>
+      </c>
+      <c r="F63">
+        <v>0.003742402506539406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1130995356393082</v>
+        <v>0.1109581996604182</v>
       </c>
       <c r="C64">
-        <v>0.01518682508312134</v>
+        <v>-0.01160886516325752</v>
       </c>
       <c r="D64">
-        <v>-0.03116919482595047</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04335652466728766</v>
+      </c>
+      <c r="E64">
+        <v>0.02279836247739931</v>
+      </c>
+      <c r="F64">
+        <v>0.02595786290280128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1395282112207919</v>
+        <v>0.1510956973166329</v>
       </c>
       <c r="C65">
-        <v>0.03343186885770299</v>
+        <v>-0.03441652733897281</v>
       </c>
       <c r="D65">
-        <v>0.04951543914391968</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04566718966390068</v>
+      </c>
+      <c r="E65">
+        <v>0.004632908687342692</v>
+      </c>
+      <c r="F65">
+        <v>0.03645648660314119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1398924560707094</v>
+        <v>0.1236822251634446</v>
       </c>
       <c r="C66">
-        <v>0.02297875632806013</v>
+        <v>-0.01376402744242548</v>
       </c>
       <c r="D66">
-        <v>-0.1183375375070702</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.141066883326847</v>
+      </c>
+      <c r="E66">
+        <v>0.06399541971129211</v>
+      </c>
+      <c r="F66">
+        <v>0.03447026823022514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06373854742944061</v>
+        <v>0.05692093416276373</v>
       </c>
       <c r="C67">
-        <v>0.005546118064559384</v>
+        <v>-0.00282146676226215</v>
       </c>
       <c r="D67">
-        <v>-0.05247539611383285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0555929461541996</v>
+      </c>
+      <c r="E67">
+        <v>0.01644897541704598</v>
+      </c>
+      <c r="F67">
+        <v>-0.02967285026775579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1042763613745956</v>
+        <v>0.1161604985101159</v>
       </c>
       <c r="C68">
-        <v>0.02146679428872659</v>
+        <v>-0.03306529888415321</v>
       </c>
       <c r="D68">
-        <v>0.2717607955310769</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2616448490920008</v>
+      </c>
+      <c r="E68">
+        <v>-0.08763645782056463</v>
+      </c>
+      <c r="F68">
+        <v>-0.001966438056296375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03992714519357468</v>
+        <v>0.038780106097908</v>
       </c>
       <c r="C69">
-        <v>0.001822335891489425</v>
+        <v>-0.001225383268180431</v>
       </c>
       <c r="D69">
-        <v>-0.007254949562321939</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007798421815827869</v>
+      </c>
+      <c r="E69">
+        <v>0.02323014123133487</v>
+      </c>
+      <c r="F69">
+        <v>0.001136955296397202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06664376047391965</v>
+        <v>0.06588689816269704</v>
       </c>
       <c r="C70">
-        <v>-0.02448018555798637</v>
+        <v>0.02753164143325202</v>
       </c>
       <c r="D70">
-        <v>0.01083686446862246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02441769128830696</v>
+      </c>
+      <c r="E70">
+        <v>-0.03159103370204786</v>
+      </c>
+      <c r="F70">
+        <v>-0.176583408115834</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1223256919629467</v>
+        <v>0.1356900657233385</v>
       </c>
       <c r="C71">
-        <v>0.02496477372349639</v>
+        <v>-0.03739598112383103</v>
       </c>
       <c r="D71">
-        <v>0.2861938054349505</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2724510963976129</v>
+      </c>
+      <c r="E71">
+        <v>-0.09750535575966598</v>
+      </c>
+      <c r="F71">
+        <v>0.00442673697019498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1390437474583727</v>
+        <v>0.1436780157350351</v>
       </c>
       <c r="C72">
-        <v>0.02775240296096322</v>
+        <v>-0.02772694826579008</v>
       </c>
       <c r="D72">
-        <v>-0.0005248404503088209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004772124948744736</v>
+      </c>
+      <c r="E72">
+        <v>0.03642941818204178</v>
+      </c>
+      <c r="F72">
+        <v>0.03018423743928247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2062213410262945</v>
+        <v>0.2041268229449427</v>
       </c>
       <c r="C73">
-        <v>0.01715721056092595</v>
+        <v>-0.01333912597490554</v>
       </c>
       <c r="D73">
-        <v>-0.01337058941790618</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01662966752953596</v>
+      </c>
+      <c r="E73">
+        <v>0.06344515785699947</v>
+      </c>
+      <c r="F73">
+        <v>0.03912626318812326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09332791484407667</v>
+        <v>0.09564250313755834</v>
       </c>
       <c r="C74">
-        <v>0.01396098186898105</v>
+        <v>-0.01380847598588756</v>
       </c>
       <c r="D74">
-        <v>-0.01994399404954171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01540988340619678</v>
+      </c>
+      <c r="E74">
+        <v>0.04351620854678025</v>
+      </c>
+      <c r="F74">
+        <v>0.05602743766656754</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1335755845476162</v>
+        <v>0.1273361135627288</v>
       </c>
       <c r="C75">
-        <v>0.03015849494085027</v>
+        <v>-0.02860525952159402</v>
       </c>
       <c r="D75">
-        <v>-0.0288196938501036</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02822993740604223</v>
+      </c>
+      <c r="E75">
+        <v>0.05622031247956567</v>
+      </c>
+      <c r="F75">
+        <v>0.02238815105594426</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08401372389834764</v>
+        <v>0.08964766606736621</v>
       </c>
       <c r="C77">
-        <v>0.01556189819675236</v>
+        <v>-0.008093997496805505</v>
       </c>
       <c r="D77">
-        <v>-0.09436583923866564</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1141211555393905</v>
+      </c>
+      <c r="E77">
+        <v>0.04333654798492212</v>
+      </c>
+      <c r="F77">
+        <v>0.03474741200657543</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.103950289806869</v>
+        <v>0.1004513233005061</v>
       </c>
       <c r="C78">
-        <v>0.04618198846347062</v>
+        <v>-0.0394411508407849</v>
       </c>
       <c r="D78">
-        <v>-0.1029823012728016</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1148921534183033</v>
+      </c>
+      <c r="E78">
+        <v>0.07591058589562882</v>
+      </c>
+      <c r="F78">
+        <v>0.04974848304953059</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.164046277811129</v>
+        <v>0.1636778937764835</v>
       </c>
       <c r="C79">
-        <v>0.02439888225074339</v>
+        <v>-0.02341322858639881</v>
       </c>
       <c r="D79">
-        <v>-0.01373470517434849</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01162016450759259</v>
+      </c>
+      <c r="E79">
+        <v>0.04423605975741064</v>
+      </c>
+      <c r="F79">
+        <v>0.01165147400179303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08643984755346362</v>
+        <v>0.08255807129080683</v>
       </c>
       <c r="C80">
-        <v>0.002083095160153289</v>
+        <v>0.0004892769574044015</v>
       </c>
       <c r="D80">
-        <v>-0.04321245242483151</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05538536766344147</v>
+      </c>
+      <c r="E80">
+        <v>0.0354427932486269</v>
+      </c>
+      <c r="F80">
+        <v>-0.0192972159714943</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1198202791885917</v>
+        <v>0.1179404452030486</v>
       </c>
       <c r="C81">
-        <v>0.03233523444874423</v>
+        <v>-0.0320869777761766</v>
       </c>
       <c r="D81">
-        <v>-0.02358400263572956</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01352346518457335</v>
+      </c>
+      <c r="E81">
+        <v>0.05485241784490991</v>
+      </c>
+      <c r="F81">
+        <v>0.01981065628114621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660374002668971</v>
+        <v>0.1662467001390907</v>
       </c>
       <c r="C82">
-        <v>0.02506515008671207</v>
+        <v>-0.02565733265314923</v>
       </c>
       <c r="D82">
-        <v>-0.01281054779892733</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.001086874706771926</v>
+      </c>
+      <c r="E82">
+        <v>0.02449292193592764</v>
+      </c>
+      <c r="F82">
+        <v>0.08068094721870327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0665502218393786</v>
+        <v>0.05820972773086133</v>
       </c>
       <c r="C83">
-        <v>0.006113682150535535</v>
+        <v>-0.002910880904526914</v>
       </c>
       <c r="D83">
-        <v>-0.03430293284643939</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04936120208372959</v>
+      </c>
+      <c r="E83">
+        <v>0.002478453192795605</v>
+      </c>
+      <c r="F83">
+        <v>-0.02889854058164961</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06418259862530643</v>
+        <v>0.05834958401921152</v>
       </c>
       <c r="C84">
-        <v>0.01483943360323821</v>
+        <v>-0.01084617931890052</v>
       </c>
       <c r="D84">
-        <v>-0.06529097181380404</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07275151601640435</v>
+      </c>
+      <c r="E84">
+        <v>0.01464617100445756</v>
+      </c>
+      <c r="F84">
+        <v>0.01434908604090215</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1369752421721749</v>
+        <v>0.1353113167170658</v>
       </c>
       <c r="C85">
-        <v>0.02859732778911478</v>
+        <v>-0.02856142849093469</v>
       </c>
       <c r="D85">
-        <v>-0.01733976854781372</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.007680400604695921</v>
+      </c>
+      <c r="E85">
+        <v>0.03518760691595727</v>
+      </c>
+      <c r="F85">
+        <v>0.04684721622951084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1022584668971975</v>
+        <v>0.09306533307624114</v>
       </c>
       <c r="C86">
-        <v>-0.002917941254822256</v>
+        <v>0.006283429991652639</v>
       </c>
       <c r="D86">
-        <v>0.003271215935638674</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0506100172567799</v>
+      </c>
+      <c r="E86">
+        <v>0.2419582083821801</v>
+      </c>
+      <c r="F86">
+        <v>-0.9031659519775179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09980516284857109</v>
+        <v>0.09360679506364071</v>
       </c>
       <c r="C87">
-        <v>0.02871721183796553</v>
+        <v>-0.01916624738663377</v>
       </c>
       <c r="D87">
-        <v>-0.06639800595999779</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09450209932745146</v>
+      </c>
+      <c r="E87">
+        <v>-0.05302202750937576</v>
+      </c>
+      <c r="F87">
+        <v>0.04766021765425321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06056965849237499</v>
+        <v>0.06007578423227954</v>
       </c>
       <c r="C88">
-        <v>0.00521752384512428</v>
+        <v>-0.002264984706376351</v>
       </c>
       <c r="D88">
-        <v>-0.05398364967781898</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04962683514626261</v>
+      </c>
+      <c r="E88">
+        <v>0.02397617584601289</v>
+      </c>
+      <c r="F88">
+        <v>0.01520049494850261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1159640156832426</v>
+        <v>0.126032290334073</v>
       </c>
       <c r="C89">
-        <v>0.00226187514860419</v>
+        <v>-0.01269575333456711</v>
       </c>
       <c r="D89">
-        <v>0.2625549866010613</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2437093620171361</v>
+      </c>
+      <c r="E89">
+        <v>-0.08984044631420726</v>
+      </c>
+      <c r="F89">
+        <v>-0.01214771314125163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1334264492002803</v>
+        <v>0.1504252576681039</v>
       </c>
       <c r="C90">
-        <v>0.02177284074011785</v>
+        <v>-0.03409298466821143</v>
       </c>
       <c r="D90">
-        <v>0.2744033526438725</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2701332757823607</v>
+      </c>
+      <c r="E90">
+        <v>-0.1136158630945458</v>
+      </c>
+      <c r="F90">
+        <v>-0.01230282592817704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1200063950494173</v>
+        <v>0.1213441557728395</v>
       </c>
       <c r="C91">
-        <v>0.01946277549102576</v>
+        <v>-0.02022024884004796</v>
       </c>
       <c r="D91">
-        <v>0.00909925542123927</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01706265676993623</v>
+      </c>
+      <c r="E91">
+        <v>0.05450139318755017</v>
+      </c>
+      <c r="F91">
+        <v>-0.0006718857381615612</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1369362838936079</v>
+        <v>0.1460676585217348</v>
       </c>
       <c r="C92">
-        <v>0.01161847354698709</v>
+        <v>-0.02457724524878252</v>
       </c>
       <c r="D92">
-        <v>0.3091431460477897</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2901959444719788</v>
+      </c>
+      <c r="E92">
+        <v>-0.1018494154869419</v>
+      </c>
+      <c r="F92">
+        <v>-0.02128783888050115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1367495398391378</v>
+        <v>0.1507107087812718</v>
       </c>
       <c r="C93">
-        <v>0.01733566696719563</v>
+        <v>-0.02890014273920458</v>
       </c>
       <c r="D93">
-        <v>0.2699554655331553</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2653534539317213</v>
+      </c>
+      <c r="E93">
+        <v>-0.07608069969488587</v>
+      </c>
+      <c r="F93">
+        <v>-0.001591998766657615</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1341760329027531</v>
+        <v>0.1280076379843646</v>
       </c>
       <c r="C94">
-        <v>0.02721082967765682</v>
+        <v>-0.02499620642928245</v>
       </c>
       <c r="D94">
-        <v>-0.04276388581229255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03995214444461884</v>
+      </c>
+      <c r="E94">
+        <v>0.05634639968744978</v>
+      </c>
+      <c r="F94">
+        <v>0.0354340467334686</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1261545009428264</v>
+        <v>0.1266377399632639</v>
       </c>
       <c r="C95">
-        <v>0.01044079217655888</v>
+        <v>-0.003356405162324902</v>
       </c>
       <c r="D95">
-        <v>-0.07772509964443747</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09810013290556141</v>
+      </c>
+      <c r="E95">
+        <v>0.05328771296770585</v>
+      </c>
+      <c r="F95">
+        <v>-0.005332245378676039</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1190046177056219</v>
+        <v>0.1110538574648594</v>
       </c>
       <c r="C96">
-        <v>-0.9871202694055565</v>
+        <v>0.9869366135811654</v>
       </c>
       <c r="D96">
-        <v>0.009966143509991253</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05104310285810498</v>
+      </c>
+      <c r="E96">
+        <v>0.05222183223431193</v>
+      </c>
+      <c r="F96">
+        <v>0.04289324855395026</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1928399247688999</v>
+        <v>0.1933350632709155</v>
       </c>
       <c r="C97">
-        <v>-0.005772080320431886</v>
+        <v>0.005930497652813239</v>
       </c>
       <c r="D97">
-        <v>0.01301541845941234</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02026245735531453</v>
+      </c>
+      <c r="E97">
+        <v>0.02147644805437838</v>
+      </c>
+      <c r="F97">
+        <v>-0.0932760350284878</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1993268708549431</v>
+        <v>0.2063073210424538</v>
       </c>
       <c r="C98">
-        <v>0.01123075029569042</v>
+        <v>-0.007352478958727669</v>
       </c>
       <c r="D98">
-        <v>-0.01205869880144964</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01349714607774425</v>
+      </c>
+      <c r="E98">
+        <v>-0.07523660753424381</v>
+      </c>
+      <c r="F98">
+        <v>-0.09193263965750126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05625404259405093</v>
+        <v>0.05477097001361634</v>
       </c>
       <c r="C99">
-        <v>-0.002005277851652426</v>
+        <v>0.004399396576645865</v>
       </c>
       <c r="D99">
-        <v>-0.02265792193744927</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03833549148366128</v>
+      </c>
+      <c r="E99">
+        <v>0.02119308502316355</v>
+      </c>
+      <c r="F99">
+        <v>0.003363971379193881</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1428280085548412</v>
+        <v>0.1291158589070948</v>
       </c>
       <c r="C100">
-        <v>-0.03731398746611294</v>
+        <v>0.05260670364432075</v>
       </c>
       <c r="D100">
-        <v>-0.4192732203677094</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3497876870546384</v>
+      </c>
+      <c r="E100">
+        <v>-0.8829410912876314</v>
+      </c>
+      <c r="F100">
+        <v>-0.1680482383692815</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02597038250489183</v>
+        <v>0.02866560340734567</v>
       </c>
       <c r="C101">
-        <v>0.009745957455916873</v>
+        <v>-0.008776280417538702</v>
       </c>
       <c r="D101">
-        <v>-0.02178731614532197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03086651458335792</v>
+      </c>
+      <c r="E101">
+        <v>0.01333881236008836</v>
+      </c>
+      <c r="F101">
+        <v>-0.013713227135342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
